--- a/data/city_permits/raw/city_2013.xlsx
+++ b/data/city_permits/raw/city_2013.xlsx
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c s="2" r="H1">
-        <v>42549</v>
+        <v>42626</v>
       </c>
     </row>
     <row r="2" ht="1" customHeight="1"/>
